--- a/Resultados/Resultados Finais/racios.xlsx
+++ b/Resultados/Resultados Finais/racios.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C12295-910C-41F9-A6A0-5A3BC4BC9B7E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A9F569-288E-408F-BA1E-1E4221B5DDA0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,6 +11,7 @@
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179017"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -404,7 +405,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,86 +437,86 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2">
-        <v>5752.8784876649397</v>
-      </c>
-      <c r="C2" s="2">
-        <v>28.5210469018932</v>
-      </c>
-      <c r="D2" s="3">
-        <v>726.55357142857099</v>
+        <v>6</v>
+      </c>
+      <c r="B2" s="3">
+        <v>293.81508892713703</v>
+      </c>
+      <c r="C2" s="3">
+        <v>25.449044320137599</v>
+      </c>
+      <c r="D2" s="2">
+        <v>738.99285714285702</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="4">
-        <f>(B2*D2)</f>
-        <v>4179774.4112075581</v>
+        <v>6</v>
+      </c>
+      <c r="H2" s="5">
+        <f>B2*D2</f>
+        <v>217127.25203794759</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>1</v>
+        <v>1206.7301450085999</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>61.813138841078597</v>
       </c>
       <c r="D3" s="2">
-        <v>1</v>
+        <v>777.28214285714296</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H3" s="4">
-        <f t="shared" ref="H3:H5" si="0">(B3*D3)</f>
-        <v>1</v>
+        <f>B3*D3</f>
+        <v>937969.79296259547</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3">
-        <v>293.81508892713703</v>
-      </c>
-      <c r="C4" s="3">
-        <v>25.449044320137599</v>
-      </c>
-      <c r="D4" s="2">
-        <v>738.99285714285702</v>
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5752.8784876649397</v>
+      </c>
+      <c r="C4" s="2">
+        <v>28.5210469018932</v>
+      </c>
+      <c r="D4" s="3">
+        <v>726.55357142857099</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="5">
-        <f t="shared" si="0"/>
-        <v>217127.25203794759</v>
+        <v>4</v>
+      </c>
+      <c r="H4" s="4">
+        <f>B4*D4</f>
+        <v>4179774.4112075581</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>1206.7301450085999</v>
+        <v>6540.4494637690204</v>
       </c>
       <c r="C5" s="2">
-        <v>61.813138841078597</v>
+        <v>53.399727705482498</v>
       </c>
       <c r="D5" s="2">
-        <v>777.28214285714296</v>
+        <v>792.92280314099298</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" si="0"/>
-        <v>937969.79296259547</v>
+        <f>B5*D5</f>
+        <v>5186071.5226137359</v>
       </c>
     </row>
   </sheetData>
